--- a/tech_companies.xlsx
+++ b/tech_companies.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5885B60-905F-45AB-8D2F-FA28466EFE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7CC7E7-AEB4-4DDB-A7C4-AC022CD193ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
   </bookViews>
   <sheets>
-    <sheet name="companiesmarketcap.com - Larges" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
